--- a/data/template_portfolio_v5.xlsx
+++ b/data/template_portfolio_v5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALEXIS\PycharmProjects\Crypto_portfolio\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A4983E-4B53-4376-AA91-F4004F9DB48B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA6BE98-FC62-4252-9F87-2465D87D8DA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Coin</t>
   </si>
@@ -210,6 +210,9 @@
   <si>
     <t>Dernière transaction</t>
   </si>
+  <si>
+    <t>Variation H24</t>
+  </si>
 </sst>
 </file>
 
@@ -226,7 +229,7 @@
     <numFmt numFmtId="170" formatCode="0.0%"/>
     <numFmt numFmtId="171" formatCode="_-[$$-409]* #,##0.000_ ;_-[$$-409]* \-#,##0.000\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,8 +303,16 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,28 +362,14 @@
       </patternFill>
     </fill>
     <fill>
-      <gradientFill degree="90">
-        <stop position="0">
-          <color theme="7" tint="-0.25095370342112489"/>
-        </stop>
-        <stop position="1">
-          <color theme="7" tint="0.40000610370189521"/>
-        </stop>
-      </gradientFill>
-    </fill>
-    <fill>
-      <gradientFill degree="90">
-        <stop position="0">
-          <color theme="7" tint="0.40000610370189521"/>
-        </stop>
-        <stop position="1">
-          <color theme="7" tint="0.59999389629810485"/>
-        </stop>
-      </gradientFill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +468,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -502,49 +499,48 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="11" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="2" fillId="11" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="9" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="2" fillId="9" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="6" fillId="11" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="9" fillId="11" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="6" fillId="11" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="9" fillId="9" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="6" fillId="9" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -700,11 +696,21 @@
     <dxf>
       <font>
         <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom"/>
@@ -952,7 +958,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Résumé!$E$4</c:f>
+              <c:f>Résumé!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -973,10 +979,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Résumé!$B$5:$B$25</c:f>
+              <c:f>Résumé!$B$4:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1038,6 +1044,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1045,10 +1054,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Résumé!$E$5:$E$25</c:f>
+              <c:f>Résumé!$E$4:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #\ ##0.00_ ;_-[$$-409]* \-#\ ##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1110,6 +1119,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1126,7 +1138,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Résumé!$G$4</c:f>
+              <c:f>Résumé!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1147,10 +1159,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Résumé!$B$5:$B$25</c:f>
+              <c:f>Résumé!$B$4:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1212,6 +1224,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1219,10 +1234,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Résumé!$G$5:$G$25</c:f>
+              <c:f>Résumé!$G$4:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #\ ##0.00_ ;_-[$$-409]* \-#\ ##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1284,6 +1299,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1586,7 +1604,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Résumé!$H$4</c:f>
+              <c:f>Résumé!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1709,10 +1727,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Résumé!$B$5:$B$25</c:f>
+              <c:f>Résumé!$B$4:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1774,6 +1792,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1781,10 +1802,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Résumé!$H$5:$H$25</c:f>
+              <c:f>Résumé!$H$4:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1846,6 +1867,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2069,7 +2093,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Résumé!$F$4</c:f>
+              <c:f>Résumé!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2575,6 +2599,52 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-759E-44A5-92DB-4112D377ACCE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-DD30-44E5-9AE7-F08BAC931CB0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2629,10 +2699,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Résumé!$B$5:$B$25</c:f>
+              <c:f>Résumé!$B$4:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2694,6 +2764,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2701,10 +2774,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Résumé!$F$5:$F$25</c:f>
+              <c:f>Résumé!$F$4:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #\ ##0.00_ ;_-[$$-409]* \-#\ ##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2766,6 +2839,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5084,13 +5160,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5192,8 +5268,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau15" displayName="Tableau15" ref="B4:K25" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="B4:K25" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau15" displayName="Tableau15" ref="B3:K25" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="B3:K25" xr:uid="{9E1AE481-427A-41EB-8298-6ADD533F39E9}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Crypto" dataDxfId="9">
       <calculatedColumnFormula>'Historique par crypto'!A2</calculatedColumnFormula>
@@ -5518,7 +5594,7 @@
   <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5526,1939 +5602,2007 @@
     <col min="2" max="11" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+    </row>
+    <row r="2" spans="1:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17">
         <f>'Historique par crypto'!A2</f>
         <v>0</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C4" s="17">
         <f>'Historique par crypto'!I2</f>
         <v>0</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D4" s="18">
         <f>'Historique par crypto'!L2</f>
         <v>0</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E4" s="19">
         <f>'Historique par crypto'!I2*'Historique par crypto'!G2</f>
         <v>0</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F4" s="19">
         <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G4" s="19">
         <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
         <v>0</v>
       </c>
-      <c r="H5" s="23" t="e">
+      <c r="H4" s="20" t="e">
         <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I4" s="29">
         <f>'Historique par crypto'!F2</f>
         <v>0</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J4" s="28">
         <f>'Historique par crypto'!E2</f>
         <v>0</v>
       </c>
-      <c r="K5" s="23" t="e">
+      <c r="K4" s="20" t="e">
         <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19">
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17">
         <f>'Historique par crypto'!A3</f>
         <v>0</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C5" s="17">
         <f>'Historique par crypto'!I3</f>
         <v>0</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D5" s="18">
         <f>'Historique par crypto'!L3</f>
         <v>0</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E5" s="19">
         <f>'Historique par crypto'!I3*'Historique par crypto'!G3</f>
         <v>0</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F5" s="19">
         <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G5" s="19">
         <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
         <v>0</v>
       </c>
-      <c r="H6" s="23" t="e">
+      <c r="H5" s="20" t="e">
         <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I5" s="29">
         <f>'Historique par crypto'!F3</f>
         <v>0</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J5" s="28">
         <f>'Historique par crypto'!E3</f>
         <v>0</v>
       </c>
-      <c r="K6" s="23" t="e">
+      <c r="K5" s="20" t="e">
         <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19">
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17">
         <f>'Historique par crypto'!A4</f>
         <v>0</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C6" s="17">
         <f>'Historique par crypto'!I4</f>
         <v>0</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D6" s="18">
         <f>'Historique par crypto'!L4</f>
         <v>0</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E6" s="19">
         <f>'Historique par crypto'!I4*'Historique par crypto'!G4</f>
         <v>0</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F6" s="19">
         <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G6" s="19">
         <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
         <v>0</v>
       </c>
-      <c r="H7" s="23" t="e">
+      <c r="H6" s="20" t="e">
         <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I6" s="29">
         <f>'Historique par crypto'!F4</f>
         <v>0</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J6" s="28">
         <f>'Historique par crypto'!E4</f>
         <v>0</v>
       </c>
-      <c r="K7" s="23" t="e">
+      <c r="K6" s="20" t="e">
         <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19">
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17">
         <f>'Historique par crypto'!A5</f>
         <v>0</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C7" s="17">
         <f>'Historique par crypto'!I5</f>
         <v>0</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D7" s="18">
         <f>'Historique par crypto'!L5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E7" s="19">
         <f>'Historique par crypto'!I5*'Historique par crypto'!G5</f>
         <v>0</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F7" s="19">
         <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
         <v>0</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G7" s="19">
         <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
         <v>0</v>
       </c>
-      <c r="H8" s="23" t="e">
+      <c r="H7" s="20" t="e">
         <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I7" s="29">
         <f>'Historique par crypto'!F5</f>
         <v>0</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J7" s="28">
         <f>'Historique par crypto'!E5</f>
         <v>0</v>
       </c>
-      <c r="K8" s="23" t="e">
+      <c r="K7" s="20" t="e">
         <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19">
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17">
         <f>'Historique par crypto'!A6</f>
         <v>0</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C8" s="17">
         <f>'Historique par crypto'!I6</f>
         <v>0</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D8" s="18">
         <f>'Historique par crypto'!L6</f>
         <v>0</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E8" s="19">
         <f>'Historique par crypto'!I6*'Historique par crypto'!G6</f>
         <v>0</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F8" s="19">
         <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
         <v>0</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G8" s="19">
         <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
         <v>0</v>
       </c>
-      <c r="H9" s="23" t="e">
+      <c r="H8" s="20" t="e">
         <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I8" s="29">
         <f>'Historique par crypto'!F6</f>
         <v>0</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J8" s="28">
         <f>'Historique par crypto'!E6</f>
         <v>0</v>
       </c>
-      <c r="K9" s="23" t="e">
+      <c r="K8" s="20" t="e">
         <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19">
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17">
         <f>'Historique par crypto'!A7</f>
         <v>0</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C9" s="17">
         <f>'Historique par crypto'!I7</f>
         <v>0</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D9" s="18">
         <f>'Historique par crypto'!L7</f>
         <v>0</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E9" s="19">
         <f>'Historique par crypto'!I7*'Historique par crypto'!G7</f>
         <v>0</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F9" s="19">
         <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
         <v>0</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G9" s="19">
         <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
         <v>0</v>
       </c>
-      <c r="H10" s="23" t="e">
+      <c r="H9" s="20" t="e">
         <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I9" s="29">
         <f>'Historique par crypto'!F7</f>
         <v>0</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J9" s="28">
         <f>'Historique par crypto'!E7</f>
         <v>0</v>
       </c>
-      <c r="K10" s="23" t="e">
+      <c r="K9" s="20" t="e">
         <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19">
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17">
         <f>'Historique par crypto'!A8</f>
         <v>0</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C10" s="17">
         <f>'Historique par crypto'!I8</f>
         <v>0</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D10" s="18">
         <f>'Historique par crypto'!L8</f>
         <v>0</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E10" s="19">
         <f>'Historique par crypto'!I8*'Historique par crypto'!G8</f>
         <v>0</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F10" s="19">
         <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
         <v>0</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G10" s="19">
         <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
         <v>0</v>
       </c>
-      <c r="H11" s="23" t="e">
+      <c r="H10" s="20" t="e">
         <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I10" s="29">
         <f>'Historique par crypto'!F8</f>
         <v>0</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J10" s="28">
         <f>'Historique par crypto'!E8</f>
         <v>0</v>
       </c>
-      <c r="K11" s="23" t="e">
+      <c r="K10" s="20" t="e">
         <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19">
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17">
         <f>'Historique par crypto'!A9</f>
         <v>0</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C11" s="17">
         <f>'Historique par crypto'!I9</f>
         <v>0</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D11" s="18">
         <f>'Historique par crypto'!L9</f>
         <v>0</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E11" s="19">
         <f>'Historique par crypto'!I9*'Historique par crypto'!G9</f>
         <v>0</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F11" s="19">
         <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
         <v>0</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G11" s="19">
         <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
         <v>0</v>
       </c>
-      <c r="H12" s="23" t="e">
+      <c r="H11" s="20" t="e">
         <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I11" s="29">
         <f>'Historique par crypto'!F9</f>
         <v>0</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J11" s="28">
         <f>'Historique par crypto'!E9</f>
         <v>0</v>
       </c>
-      <c r="K12" s="23" t="e">
+      <c r="K11" s="20" t="e">
         <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19">
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17">
         <f>'Historique par crypto'!A10</f>
         <v>0</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C12" s="17">
         <f>'Historique par crypto'!I10</f>
         <v>0</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D12" s="18">
         <f>'Historique par crypto'!L10</f>
         <v>0</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E12" s="19">
         <f>'Historique par crypto'!I10*'Historique par crypto'!G10</f>
         <v>0</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F12" s="19">
         <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
         <v>0</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G12" s="19">
         <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
         <v>0</v>
       </c>
-      <c r="H13" s="23" t="e">
+      <c r="H12" s="20" t="e">
         <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I12" s="29">
         <f>'Historique par crypto'!F10</f>
         <v>0</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J12" s="28">
         <f>'Historique par crypto'!E10</f>
         <v>0</v>
       </c>
-      <c r="K13" s="23" t="e">
+      <c r="K12" s="20" t="e">
         <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19">
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17">
         <f>'Historique par crypto'!A11</f>
         <v>0</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C13" s="17">
         <f>'Historique par crypto'!I11</f>
         <v>0</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D13" s="18">
         <f>'Historique par crypto'!L11</f>
         <v>0</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E13" s="19">
         <f>'Historique par crypto'!I11*'Historique par crypto'!G11</f>
         <v>0</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F13" s="19">
         <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
         <v>0</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G13" s="19">
         <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
         <v>0</v>
       </c>
-      <c r="H14" s="23" t="e">
+      <c r="H13" s="20" t="e">
         <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I13" s="29">
         <f>'Historique par crypto'!F11</f>
         <v>0</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J13" s="28">
         <f>'Historique par crypto'!E11</f>
         <v>0</v>
       </c>
-      <c r="K14" s="23" t="e">
+      <c r="K13" s="20" t="e">
         <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19">
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17">
         <f>'Historique par crypto'!A12</f>
         <v>0</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C14" s="17">
         <f>'Historique par crypto'!I12</f>
         <v>0</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D14" s="18">
         <f>'Historique par crypto'!L12</f>
         <v>0</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E14" s="19">
         <f>'Historique par crypto'!I12*'Historique par crypto'!G12</f>
         <v>0</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F14" s="19">
         <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
         <v>0</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G14" s="19">
         <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
         <v>0</v>
       </c>
-      <c r="H15" s="23" t="e">
+      <c r="H14" s="20" t="e">
         <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I14" s="29">
         <f>'Historique par crypto'!F12</f>
         <v>0</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J14" s="28">
         <f>'Historique par crypto'!E12</f>
         <v>0</v>
       </c>
-      <c r="K15" s="23" t="e">
+      <c r="K14" s="20" t="e">
         <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19">
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17">
         <f>'Historique par crypto'!A13</f>
         <v>0</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C15" s="17">
         <f>'Historique par crypto'!I13</f>
         <v>0</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D15" s="18">
         <f>'Historique par crypto'!L13</f>
         <v>0</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E15" s="19">
         <f>'Historique par crypto'!I13*'Historique par crypto'!G13</f>
         <v>0</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F15" s="19">
         <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
         <v>0</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G15" s="19">
         <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
         <v>0</v>
       </c>
-      <c r="H16" s="23" t="e">
+      <c r="H15" s="20" t="e">
         <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I15" s="29">
         <f>'Historique par crypto'!F13</f>
         <v>0</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J15" s="28">
         <f>'Historique par crypto'!E13</f>
         <v>0</v>
       </c>
-      <c r="K16" s="23" t="e">
+      <c r="K15" s="20" t="e">
         <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19">
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17">
         <f>'Historique par crypto'!A14</f>
         <v>0</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C16" s="17">
         <f>'Historique par crypto'!I14</f>
         <v>0</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D16" s="18">
         <f>'Historique par crypto'!L14</f>
         <v>0</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E16" s="19">
         <f>'Historique par crypto'!I14*'Historique par crypto'!G14</f>
         <v>0</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F16" s="19">
         <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
         <v>0</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G16" s="19">
         <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
         <v>0</v>
       </c>
-      <c r="H17" s="24" t="e">
+      <c r="H16" s="21" t="e">
         <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I16" s="29">
         <f>'Historique par crypto'!F14</f>
         <v>0</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J16" s="28">
         <f>'Historique par crypto'!E14</f>
         <v>0</v>
       </c>
-      <c r="K17" s="23" t="e">
+      <c r="K16" s="20" t="e">
         <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19">
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17">
         <f>'Historique par crypto'!A15</f>
         <v>0</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C17" s="17">
         <f>'Historique par crypto'!I15</f>
         <v>0</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D17" s="18">
         <f>'Historique par crypto'!L15</f>
         <v>0</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E17" s="19">
         <f>'Historique par crypto'!I15*'Historique par crypto'!G15</f>
         <v>0</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F17" s="19">
         <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
         <v>0</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G17" s="19">
         <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
         <v>0</v>
       </c>
-      <c r="H18" s="24" t="e">
+      <c r="H17" s="21" t="e">
         <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I17" s="29">
         <f>'Historique par crypto'!F15</f>
         <v>0</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J17" s="28">
         <f>'Historique par crypto'!E15</f>
         <v>0</v>
       </c>
-      <c r="K18" s="23" t="e">
+      <c r="K17" s="20" t="e">
         <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19">
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17">
         <f>'Historique par crypto'!A16</f>
         <v>0</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C18" s="17">
         <f>'Historique par crypto'!I16</f>
         <v>0</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D18" s="18">
         <f>'Historique par crypto'!L16</f>
         <v>0</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E18" s="19">
         <f>'Historique par crypto'!I16*'Historique par crypto'!G16</f>
         <v>0</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F18" s="19">
         <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
         <v>0</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G18" s="19">
         <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
         <v>0</v>
       </c>
-      <c r="H19" s="24" t="e">
+      <c r="H18" s="21" t="e">
         <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I18" s="29">
         <f>'Historique par crypto'!F16</f>
         <v>0</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J18" s="28">
         <f>'Historique par crypto'!E16</f>
         <v>0</v>
       </c>
-      <c r="K19" s="23" t="e">
+      <c r="K18" s="20" t="e">
         <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19">
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17">
         <f>'Historique par crypto'!A17</f>
         <v>0</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C19" s="17">
         <f>'Historique par crypto'!I17</f>
         <v>0</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D19" s="18">
         <f>'Historique par crypto'!L17</f>
         <v>0</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E19" s="19">
         <f>'Historique par crypto'!I17*'Historique par crypto'!G17</f>
         <v>0</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F19" s="19">
         <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
         <v>0</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G19" s="19">
         <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
         <v>0</v>
       </c>
-      <c r="H20" s="24" t="e">
+      <c r="H19" s="21" t="e">
         <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I19" s="29">
         <f>'Historique par crypto'!F17</f>
         <v>0</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J19" s="28">
         <f>'Historique par crypto'!E17</f>
         <v>0</v>
       </c>
-      <c r="K20" s="23" t="e">
+      <c r="K19" s="20" t="e">
         <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-    </row>
-    <row r="21" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19">
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+    </row>
+    <row r="20" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17">
         <f>'Historique par crypto'!A18</f>
         <v>0</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C20" s="17">
         <f>'Historique par crypto'!I18</f>
         <v>0</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D20" s="18">
         <f>'Historique par crypto'!L18</f>
         <v>0</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E20" s="19">
         <f>'Historique par crypto'!I18*'Historique par crypto'!G18</f>
         <v>0</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F20" s="19">
         <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
         <v>0</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G20" s="19">
         <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
         <v>0</v>
       </c>
-      <c r="H21" s="24" t="e">
+      <c r="H20" s="21" t="e">
         <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I20" s="32">
         <f>'Historique par crypto'!F18</f>
         <v>0</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J20" s="28">
         <f>'Historique par crypto'!E18</f>
         <v>0</v>
       </c>
-      <c r="K21" s="37" t="e">
+      <c r="K20" s="33" t="e">
         <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-    </row>
-    <row r="22" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19">
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+    </row>
+    <row r="21" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17">
         <f>'Historique par crypto'!A19</f>
         <v>0</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C21" s="17">
         <f>'Historique par crypto'!I19</f>
         <v>0</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D21" s="18">
         <f>'Historique par crypto'!L19</f>
         <v>0</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E21" s="19">
         <f>'Historique par crypto'!I19*'Historique par crypto'!G19</f>
         <v>0</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F21" s="19">
         <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
         <v>0</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G21" s="19">
         <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
         <v>0</v>
       </c>
-      <c r="H22" s="24" t="e">
+      <c r="H21" s="21" t="e">
         <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I21" s="32">
         <f>'Historique par crypto'!F19</f>
         <v>0</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J21" s="28">
         <f>'Historique par crypto'!E19</f>
         <v>0</v>
       </c>
-      <c r="K22" s="37" t="e">
+      <c r="K21" s="33" t="e">
         <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-    </row>
-    <row r="23" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19">
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+    </row>
+    <row r="22" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17">
         <f>'Historique par crypto'!A20</f>
         <v>0</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C22" s="17">
         <f>'Historique par crypto'!I20</f>
         <v>0</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D22" s="18">
         <f>'Historique par crypto'!L20</f>
         <v>0</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E22" s="19">
         <f>'Historique par crypto'!I20*'Historique par crypto'!G20</f>
         <v>0</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F22" s="19">
         <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
         <v>0</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G22" s="19">
         <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
         <v>0</v>
       </c>
-      <c r="H23" s="24" t="e">
+      <c r="H22" s="21" t="e">
         <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I22" s="32">
         <f>'Historique par crypto'!F20</f>
         <v>0</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J22" s="28">
         <f>'Historique par crypto'!E20</f>
         <v>0</v>
       </c>
-      <c r="K23" s="37" t="e">
+      <c r="K22" s="33" t="e">
         <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-    </row>
-    <row r="24" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19">
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+    </row>
+    <row r="23" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17">
         <f>'Historique par crypto'!A21</f>
         <v>0</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C23" s="36">
         <f>'Historique par crypto'!I21</f>
         <v>0</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D23" s="18">
         <f>'Historique par crypto'!L21</f>
         <v>0</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E23" s="19">
         <f>'Historique par crypto'!I21*'Historique par crypto'!G21</f>
         <v>0</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F23" s="19">
         <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
         <v>0</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G23" s="19">
         <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
         <v>0</v>
       </c>
-      <c r="H24" s="24" t="e">
+      <c r="H23" s="21" t="e">
         <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I23" s="32">
         <f>'Historique par crypto'!F21</f>
         <v>0</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J23" s="28">
         <f>'Historique par crypto'!E21</f>
         <v>0</v>
       </c>
-      <c r="K24" s="37" t="e">
+      <c r="K23" s="33" t="e">
         <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-    </row>
-    <row r="25" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19">
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+    </row>
+    <row r="24" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17">
         <f>'Historique par crypto'!A22</f>
         <v>0</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C24" s="36">
         <f>'Historique par crypto'!I22</f>
         <v>0</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D24" s="18">
         <f>'Historique par crypto'!L22</f>
         <v>0</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E24" s="19">
         <f>'Historique par crypto'!I22*'Historique par crypto'!G22</f>
         <v>0</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F24" s="19">
         <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
         <v>0</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G24" s="19">
         <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
         <v>0</v>
       </c>
-      <c r="H25" s="24" t="e">
+      <c r="H24" s="21" t="e">
         <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I24" s="32">
         <f>'Historique par crypto'!F22</f>
         <v>0</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J24" s="28">
         <f>'Historique par crypto'!E22</f>
         <v>0</v>
       </c>
-      <c r="K25" s="37" t="e">
+      <c r="K24" s="33" t="e">
         <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+    </row>
+    <row r="25" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17">
+        <f>'Historique par crypto'!A23</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="36">
+        <f>'Historique par crypto'!I23</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="18">
+        <f>'Historique par crypto'!L23</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="19">
+        <f>'Historique par crypto'!I23*'Historique par crypto'!G23</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="19">
+        <f>Tableau15[[#This Row],[Quantité]]*Tableau15[[#This Row],[Prix actuel $]]</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="19">
+        <f>Tableau15[[#This Row],[Valeur actuelle $]]-Tableau15[[#This Row],[Investissement $]]</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="21" t="e">
+        <f>Tableau15[[#This Row],[Gain/Perte $]]/Tableau15[[#This Row],[Investissement $]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="32">
+        <f>'Historique par crypto'!F23</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="28">
+        <f>'Historique par crypto'!E23</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="33" t="e">
+        <f ca="1">Tableau15[[#This Row],[ROI %]]/(TODAY()-Tableau15[[#This Row],[Date]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+    </row>
+    <row r="26" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
     </row>
     <row r="28" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="19"/>
-      <c r="B28" s="25" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="25" t="s">
+      <c r="C28" s="17"/>
+      <c r="D28" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="25" t="s">
+      <c r="E28" s="17"/>
+      <c r="F28" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="26" t="s">
+      <c r="G28" s="17"/>
+      <c r="H28" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="26" t="s">
+      <c r="I28" s="17"/>
+      <c r="J28" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
     </row>
     <row r="29" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="19"/>
-      <c r="B29" s="27">
+      <c r="A29" s="17"/>
+      <c r="B29" s="24">
         <f>SUM(Tableau15[Investissement $])</f>
         <v>0</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="27">
+      <c r="C29" s="17"/>
+      <c r="D29" s="24">
         <f>SUM(Tableau15[Gain/Perte $])</f>
         <v>0</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="27">
+      <c r="E29" s="17"/>
+      <c r="F29" s="24">
         <f>SUM(Tableau15[Valeur actuelle $])</f>
         <v>0</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="28" t="e">
+      <c r="G29" s="17"/>
+      <c r="H29" s="25" t="e">
         <f>INDEX(Tableau15[Crypto],MATCH(MIN(Tableau15[ROI %]),Tableau15[ROI %],0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="29" t="e">
+      <c r="I29" s="17"/>
+      <c r="J29" s="26" t="e">
         <f>INDEX(Tableau15[Crypto],MATCH(MAX(Tableau15[ROI %]),Tableau15[ROI %],0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
     </row>
     <row r="30" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="30" t="e">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="27" t="e">
         <f>MIN(Tableau15[ROI %])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="30" t="e">
+      <c r="I30" s="17"/>
+      <c r="J30" s="27" t="e">
         <f>MAX(Tableau15[ROI %])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
     </row>
     <row r="31" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="25" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
     </row>
     <row r="32" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="19"/>
-      <c r="B32" s="35">
-        <f>AVERAGE(Tableau15[Variation H24 %])</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="38" t="e">
+      <c r="A32" s="17"/>
+      <c r="B32" s="34">
+        <f>AVERAGE(Tableau15[Variation H24 %])/100</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="34" t="e">
         <f>D29/B29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="19"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="19"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="19"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G4:G25">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H25">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I25">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K25">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8963,7 +9107,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozenSplit"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -9017,10 +9161,10 @@
       <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="30" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9244,7 +9388,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="F23" sqref="F23"/>
+      <selection pane="topRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9272,66 +9416,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="47" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="41" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="45" t="s">
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="49" t="s">
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="48" t="s">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="46"/>
+      <c r="U2" s="45"/>
     </row>
     <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
